--- a/ramp/input_files/HH - very low.xlsx
+++ b/ramp/input_files/HH - very low.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\SESAM\RAMP_excel\ramp\input_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A81C05B-2753-4E97-90EC-895A033BA84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D53F18-E795-4BFC-A185-DBFACE9B3D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="19380" windowHeight="20970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>N. of windows</t>
   </si>
@@ -137,25 +138,28 @@
     <t>Number</t>
   </si>
   <si>
-    <t>Interview 1</t>
-  </si>
-  <si>
-    <t>Interview 5</t>
-  </si>
-  <si>
-    <t>Interview 11</t>
-  </si>
-  <si>
-    <t>Interview 60</t>
-  </si>
-  <si>
-    <t>Indoor lights</t>
-  </si>
-  <si>
     <t>Outdoor lights</t>
   </si>
   <si>
     <t>Charger</t>
+  </si>
+  <si>
+    <t>Interview1</t>
+  </si>
+  <si>
+    <t>Interview5</t>
+  </si>
+  <si>
+    <t>Interview11</t>
+  </si>
+  <si>
+    <t>Interview60</t>
+  </si>
+  <si>
+    <t>Indoor_Lights</t>
+  </si>
+  <si>
+    <t>Outdoor_Lights</t>
   </si>
 </sst>
 </file>
@@ -265,6 +269,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -273,9 +280,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,7 +564,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,7 +588,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -595,7 +599,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -606,7 +610,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -617,7 +621,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -639,7 +643,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="P5" sqref="P5"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -662,48 +666,48 @@
     <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="13" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
       <c r="S1" s="8"/>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="U1" s="13"/>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="14" t="s">
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AC1" s="15"/>
-      <c r="AD1" s="14" t="s">
+      <c r="Z1" s="14"/>
+      <c r="AA1" s="14"/>
+      <c r="AB1" s="14"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="13"/>
-      <c r="AF1" s="13"/>
-      <c r="AG1" s="13"/>
-      <c r="AH1" s="15"/>
+      <c r="AE1" s="14"/>
+      <c r="AF1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AH1" s="16"/>
     </row>
     <row r="2" spans="1:34" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
@@ -721,16 +725,16 @@
       <c r="E2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="13" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="10" t="s">
@@ -915,10 +919,10 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C5">
         <v>10</v>
@@ -930,11 +934,11 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <f>COUNTA(P5:R5)</f>
+        <f t="shared" ref="F5:F15" si="0">COUNTA(P5:R5)</f>
         <v>1</v>
       </c>
       <c r="G5">
-        <f>INDEX(_xlfn.TEXTSPLIT(P5,","),1,2)-INDEX(_xlfn.TEXTSPLIT(P5,","),1,1)+IF(Q5&lt;&gt;"",INDEX(_xlfn.TEXTSPLIT(Q5,","),1,2),0)-IF(Q5&lt;&gt;0,INDEX(_xlfn.TEXTSPLIT(Q5,","),1,1),0)+IF(R5&lt;&gt;"",INDEX(_xlfn.TEXTSPLIT(R5,","),1,2),0)-IF(R5&lt;&gt;0,INDEX(_xlfn.TEXTSPLIT(R5,","),1,1),0)</f>
+        <f t="shared" ref="G5:G15" si="1">INDEX(_xlfn.TEXTSPLIT(P5,","),1,2)-INDEX(_xlfn.TEXTSPLIT(P5,","),1,1)+IF(Q5&lt;&gt;"",INDEX(_xlfn.TEXTSPLIT(Q5,","),1,2),0)-IF(Q5&lt;&gt;0,INDEX(_xlfn.TEXTSPLIT(Q5,","),1,1),0)+IF(R5&lt;&gt;"",INDEX(_xlfn.TEXTSPLIT(R5,","),1,2),0)-IF(R5&lt;&gt;0,INDEX(_xlfn.TEXTSPLIT(R5,","),1,1),0)</f>
         <v>540</v>
       </c>
       <c r="H5">
@@ -945,7 +949,7 @@
         <v>540</v>
       </c>
       <c r="P5" s="6" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,9*60,18*60)</f>
+        <f t="shared" ref="P5:P15" si="2">_xlfn.TEXTJOIN(",",TRUE,9*60,18*60)</f>
         <v>540,1080</v>
       </c>
       <c r="Q5" s="6"/>
@@ -954,28 +958,83 @@
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="P6" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6:I15" si="3">G6</f>
+        <v>540</v>
+      </c>
+      <c r="P6" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>540,1080</v>
+      </c>
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>0.2</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="P7" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>540,1080</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C8">
         <v>10</v>
@@ -987,32 +1046,67 @@
         <v>20</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="P8" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>540,1080</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0.2</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="P9" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>540,1080</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
         <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -1024,40 +1118,103 @@
         <v>20</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="P10" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>540,1080</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="P11" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>540,1080</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>0.2</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="P12" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>540,1080</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13">
         <v>10</v>
@@ -1069,32 +1226,95 @@
         <v>20</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>540</v>
       </c>
       <c r="H13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="P13" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>540,1080</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>0.2</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="P14" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>540,1080</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0.2</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>540</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>540</v>
+      </c>
+      <c r="P15" s="6" t="str">
+        <f t="shared" si="2"/>
+        <v>540,1080</v>
       </c>
     </row>
   </sheetData>
